--- a/doc/database_structure.xlsx
+++ b/doc/database_structure.xlsx
@@ -348,15 +348,16 @@
     <t>PK（自增）</t>
   </si>
   <si>
-    <t>PICTURE_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mediumblob</t>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PICTURE_PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -725,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1033,13 +1034,13 @@
         <v>59</v>
       </c>
       <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
         <v>84</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/doc/database_structure.xlsx
+++ b/doc/database_structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
   <si>
     <t>表明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,14 @@
   </si>
   <si>
     <t>图片地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从1开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从1000000开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,11 +730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -736,9 +744,10 @@
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -752,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -768,8 +777,11 @@
       <c r="E2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -783,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -794,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -805,7 +817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -816,7 +828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -827,7 +839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -838,7 +850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -849,7 +861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -860,7 +872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -877,7 +889,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -891,7 +903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -902,7 +914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -913,7 +925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="B33" t="s">
         <v>23</v>
       </c>
@@ -1107,7 +1119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="B34" t="s">
         <v>6</v>
       </c>
@@ -1118,7 +1130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="B35" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="B36" t="s">
         <v>12</v>
       </c>
@@ -1140,7 +1152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -1156,8 +1168,11 @@
       <c r="E38" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -1171,7 +1186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="B40" t="s">
         <v>41</v>
       </c>
@@ -1182,7 +1197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="B41" t="s">
         <v>48</v>
       </c>
@@ -1193,7 +1208,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="B42" t="s">
         <v>49</v>
       </c>
@@ -1204,7 +1219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -1221,7 +1236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -1235,7 +1250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="B46" t="s">
         <v>40</v>
       </c>
@@ -1246,7 +1261,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="B47" t="s">
         <v>41</v>
       </c>
@@ -1257,7 +1272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="B48" t="s">
         <v>48</v>
       </c>
